--- a/results/I3_N5_M3_T30_C100_DepCentral_s4_P5_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepCentral_s4_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>872.2574666690217</v>
+        <v>2085.37176808761</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0429999828338623</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>32.72746666901232</v>
+        <v>18.73569081392109</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.610172408098745</v>
+        <v>12.35046801905277</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.610172408098745</v>
+        <v>4.986545292741899</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>472.9200000000094</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>366.61</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -667,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -689,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -780,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -791,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -802,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -813,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -835,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -846,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +929,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +937,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +945,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>6.841313564153605</v>
+        <v>24.77463816779881</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +953,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.50084538957422</v>
+        <v>17.96987353846196</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +961,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>12.46902814888773</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +969,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.85113273640546</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +977,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.81602556806575</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -963,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.92351947766122</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -977,7 +999,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1009,13 +1031,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1023,13 +1045,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1037,15 +1059,239 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>3</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>3</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>4</v>
+      </c>
+      <c r="B12" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>4</v>
+      </c>
+      <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>4</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>4</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>4</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>4</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>107.9950000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8">
@@ -1159,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>105.5100000000001</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9">
@@ -1170,7 +1416,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>104.6650000000001</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10">
@@ -1181,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>104.5050000000001</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
@@ -1192,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>96.60500000000008</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12">
@@ -1203,7 +1449,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>109.9700000000014</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13">
@@ -1214,7 +1460,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>113.75</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14">
@@ -1225,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>117.1850000000014</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15">
@@ -1236,7 +1482,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>113.0050000000014</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16">
@@ -1247,7 +1493,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>105.6750000000014</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17">
@@ -1258,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>48.07000000000073</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18">
@@ -1269,7 +1515,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66000000000073</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19">
@@ -1280,7 +1526,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>49.43500000000073</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20">
@@ -1291,7 +1537,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>46.91500000000073</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21">
@@ -1302,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>42.86500000000073</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22">
@@ -1313,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>122.3699999999998</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
@@ -1324,7 +1570,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>134.1349999999998</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
@@ -1335,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>125.8349999999998</v>
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -1346,7 +1592,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>135.8949999999998</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26">
@@ -1357,7 +1603,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>135.9649999999997</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27">
@@ -1368,7 +1614,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>59.8949999999997</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1379,7 +1625,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>63.81999999999971</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29">
@@ -1390,7 +1636,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>63.17499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30">
@@ -1401,7 +1647,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>62.68499999999971</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -1412,7 +1658,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>61.9</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32">
@@ -1423,7 +1669,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>122.3699999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1434,7 +1680,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>134.1349999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1445,7 +1691,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>125.8349999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1456,7 +1702,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>135.8949999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1467,7 +1713,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>135.9649999999997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1478,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>107.9950000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1489,7 +1735,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>105.5100000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1500,7 +1746,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>104.6650000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1511,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>104.5050000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1522,7 +1768,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>96.60500000000008</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1533,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>109.9700000000014</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43">
@@ -1544,7 +1790,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>113.75</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44">
@@ -1555,7 +1801,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>117.1850000000014</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45">
@@ -1566,7 +1812,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>113.0050000000014</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46">
@@ -1577,7 +1823,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>105.6750000000014</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -1624,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.36999999999976</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1635,7 +1881,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>34.13499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1646,7 +1892,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>25.83499999999979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1657,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>35.89499999999978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1668,7 +1914,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>35.96499999999975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1679,7 +1925,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.995000000000083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1690,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>5.510000000000066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1701,7 +1947,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>4.665000000000081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1712,7 +1958,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4.505000000000077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1734,7 +1980,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>9.970000000001392</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13">
@@ -1745,7 +1991,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>13.75</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14">
@@ -1756,7 +2002,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>17.18500000000137</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +2013,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>13.00500000000139</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
@@ -1778,7 +2024,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.67500000000139</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1825,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1836,7 +2082,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1847,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1858,7 +2104,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1869,7 +2115,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1880,7 +2126,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>18.61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1891,7 +2137,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>15.88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1902,7 +2148,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>26.885</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -1913,7 +2159,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>27.385</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1924,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>22.46</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -1935,7 +2181,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>7.925000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1946,7 +2192,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>11.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1957,7 +2203,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1968,7 +2214,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>6.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1979,7 +2225,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>13.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1990,7 +2236,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2247,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -2012,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
@@ -2023,7 +2269,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21">
@@ -2034,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -2045,7 +2291,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>2.59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -2056,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>3.945</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -2067,7 +2313,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>7.33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25">
@@ -2078,7 +2324,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>6.375</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26">
@@ -2089,7 +2335,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>4.55</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2103,7 +2349,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2130,7 +2376,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2141,7 +2387,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2152,7 +2398,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2163,7 +2409,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2177,7 +2423,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -2185,10 +2431,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2196,10 +2442,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2207,10 +2453,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2218,10 +2464,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2229,10 +2475,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2243,7 +2489,7 @@
         <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2254,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2265,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2276,9 +2522,64 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>4</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>2</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5</v>
+      </c>
+      <c r="B19" t="n">
+        <v>4</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5</v>
+      </c>
+      <c r="B20" t="n">
+        <v>5</v>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
